--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634803.0623186791</v>
+        <v>637053.8218356789</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5247562.307651305</v>
+        <v>5247562.307651304</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>205.5178444382804</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33.57505181659868</v>
       </c>
       <c r="D3" t="n">
-        <v>48.32160706581265</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>85.80043703055078</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="W6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>205.5178444382804</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>72.55971260501168</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1370,70 +1370,70 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="F11" t="n">
+      <c r="T11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>81.44781579947814</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>153.2418220378557</v>
       </c>
     </row>
     <row r="13">
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1704,10 +1704,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>39.7625520093063</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1862,10 +1862,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>85.72024486005427</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,13 +1938,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2087,22 +2087,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>208.2638363878125</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>40.15245528394292</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>84.14750936819277</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,70 +2236,70 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,25 +2397,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>41.80378145191548</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>102.9664640366238</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2454,7 +2454,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2473,73 +2473,73 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,67 +2561,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>90.16983368421225</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>68.29221919223491</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2731,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,22 +2798,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,25 +2834,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>79.44674520176419</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>83.03189205754168</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,20 +3026,20 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
@@ -3071,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9634147202719892</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3159,13 +3159,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>118.3376725010039</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>15.83810168125762</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>83.3927757125424</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3506,7 +3506,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3579,31 +3579,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>93.89280440219174</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>26.23921687579552</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>205.5178444382804</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,19 +3819,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>62.35969771424954</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,31 +3974,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>113.510569923185</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4062,7 +4062,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.49362410411709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4334,16 +4334,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.2511316619439</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C3" t="n">
-        <v>65.2511316619439</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4413,19 +4413,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M3" t="n">
-        <v>548.724319600695</v>
-      </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4434,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X3" t="n">
-        <v>441.0602509429012</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y3" t="n">
-        <v>233.4664686820119</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="4">
@@ -4477,7 +4477,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
         <v>16.44142755506243</v>
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4568,19 +4568,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4598,19 +4598,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y5" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4656,10 +4656,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4680,16 +4680,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="W6" t="n">
-        <v>614.4775954922324</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="X6" t="n">
-        <v>614.4775954922324</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="7">
@@ -4744,10 +4744,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
         <v>16.44142755506243</v>
@@ -4811,7 +4811,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
         <v>672.8764276104736</v>
@@ -4829,25 +4829,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3758372163137</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C9" t="n">
-        <v>165.3758372163137</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D9" t="n">
         <v>16.44142755506243</v>
@@ -4887,19 +4887,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4911,22 +4911,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>748.7787387581603</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>748.7787387581603</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>748.7787387581603</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>748.7787387581603</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>541.1849564972711</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y9" t="n">
-        <v>333.5911742363817</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="10">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5066,25 +5066,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406.8838132313431</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C12" t="n">
-        <v>406.8838132313431</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D12" t="n">
-        <v>257.9494035700918</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E12" t="n">
-        <v>98.71194856463632</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>98.71194856463632</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
         <v>16.44142755506243</v>
@@ -5130,10 +5130,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5151,19 +5151,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>667.2816585229643</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5224,25 +5224,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5273,7 +5273,7 @@
         <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,10 +5285,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>455.2401404867769</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>308.7055825136619</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>169.9747570962774</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>56.60562150385668</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O15" t="n">
-        <v>626.8294255367553</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5391,16 +5391,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="16">
@@ -5498,19 +5498,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>877.4710495913895</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>703.0180203102625</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5695,7 +5695,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>264.262076138609</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="C21" t="n">
-        <v>223.7040404982626</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="D21" t="n">
-        <v>223.7040404982626</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="E21" t="n">
-        <v>223.7040404982626</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="F21" t="n">
-        <v>223.7040404982626</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>432.4774131586771</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>432.4774131586771</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W21" t="n">
-        <v>432.4774131586771</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X21" t="n">
-        <v>432.4774131586771</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y21" t="n">
-        <v>432.4774131586771</v>
+        <v>104.2786273205085</v>
       </c>
     </row>
     <row r="22">
@@ -5947,13 +5947,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>200.9921430510046</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>200.9921430510046</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>62.26131763362014</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>62.26131763362014</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>860.0506261807132</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>657.8640315394791</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>429.6404132758682</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>194.4883050441255</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W24" t="n">
-        <v>194.4883050441255</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X24" t="n">
-        <v>194.4883050441255</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>89.01731535111452</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,16 +6306,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>111.1159158480613</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>743.5980286395683</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>238.2612061051368</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>238.2612061051368</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>238.2612061051368</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>238.2612061051368</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6543,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W30" t="n">
-        <v>446.0215048700907</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X30" t="n">
-        <v>446.0215048700907</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>238.2612061051368</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
         <v>829.5248650203655</v>
@@ -6637,34 +6637,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>111.3080510879349</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C33" t="n">
-        <v>111.3080510879349</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D33" t="n">
-        <v>111.3080510879349</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E33" t="n">
-        <v>111.3080510879349</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F33" t="n">
-        <v>111.3080510879349</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>111.3080510879349</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>569.9372789879242</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>569.9372789879242</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="Y33" t="n">
-        <v>279.5233881080029</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6977,10 +6977,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>560.6897102588255</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C36" t="n">
-        <v>386.2366809776985</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>386.2366809776985</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>386.2366809776985</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>239.7021230045835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>778.6524990811558</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>778.6524990811558</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>550.428880817545</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>550.428880817545</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>550.428880817545</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>550.428880817545</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9050472788936</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="37">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C38" t="n">
-        <v>710.516763498309</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.7568786610034</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C39" t="n">
-        <v>512.7568786610034</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D39" t="n">
-        <v>512.7568786610034</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E39" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>937.5528960401357</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>937.5528960401357</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>937.5528960401357</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>937.5528960401357</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>729.7013958346029</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.7568786610034</v>
+        <v>521.941097069649</v>
       </c>
     </row>
     <row r="40">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G41" t="n">
         <v>224.0352098159517</v>
@@ -7415,13 +7415,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7436,25 +7436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>79.43102120581955</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>79.43102120581955</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7491,49 +7491,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>735.0390108322182</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7667,31 +7667,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.1051990630351</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>453.1980020898613</v>
+        <v>499.8204541556819</v>
       </c>
       <c r="C45" t="n">
-        <v>278.7449728087344</v>
+        <v>325.3674248745549</v>
       </c>
       <c r="D45" t="n">
-        <v>129.8105631474831</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E45" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y45" t="n">
-        <v>621.4133391099294</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
         <v>16.44142755506243</v>
@@ -7831,25 +7831,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8304,13 +8304,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,10 +8459,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N8" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,13 +8778,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>143.091025904242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8933,13 +8933,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
@@ -9021,10 +9021,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,13 +9252,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>371.3463732493024</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,7 +10680,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11072,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>258.4602915813506</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897702</v>
       </c>
       <c r="D2" t="n">
         <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>201.358201303431</v>
@@ -22565,7 +22565,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>139.1334471717171</v>
       </c>
       <c r="D3" t="n">
-        <v>99.1234584988261</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,7 +22674,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22683,16 +22683,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22838,7 +22838,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972316</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22872,19 +22872,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>59.2687753628331</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,16 +22920,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>218.3136534180552</v>
       </c>
       <c r="W6" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22984,13 +22984,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S7" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>159.7550473327271</v>
@@ -23069,7 +23069,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23081,10 +23081,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,10 +23100,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23151,7 +23151,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>127.6050160898099</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23258,19 +23258,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
-        <v>200.9102526910244</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23306,10 +23306,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23349,7 +23349,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>55.8957013637325</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23391,7 +23391,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>52.44087373944865</v>
       </c>
     </row>
     <row r="13">
@@ -23431,13 +23431,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>113.0991222774871</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23513,10 +23513,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23574,10 +23574,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23592,10 +23592,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>49.63408084210877</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23631,7 +23631,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23738,7 +23738,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23750,10 +23750,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>80.81293878981307</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23826,13 +23826,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,16 +24020,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>43.08181652002401</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>132.5560437043728</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.249123483222306</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,22 +24212,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,16 +24257,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>2.212053182593479</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,25 +24285,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>47.5928513994996</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>68.71670706721399</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>82.53866530410349</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>21.10441365918017</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,13 +24579,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24619,13 +24619,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,22 +24686,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,25 +24722,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>150.6253511395826</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,10 +24768,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>65.62246719161969</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>117.1328366372799</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,19 +24914,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>142.3976559772408</v>
+        <v>252.344814527994</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,16 +24959,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25005,16 +25005,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>111.2720295162245</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,13 +25047,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>81.82705619381767</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25117,7 +25117,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.5597290184211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>121.505415481953</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>88.29039539129542</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25394,7 +25394,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,7 +25406,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25467,31 +25467,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>63.7522760532092</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>173.9255118190261</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,13 +25530,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25640,7 +25640,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>133.9569576774867</v>
@@ -25676,19 +25676,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,19 +25707,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>74.9838194489611</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>52.86155497130842</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25828,10 +25828,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,10 +25925,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>360.5200898075386</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>53.02261372668238</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25950,7 +25950,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25959,13 +25959,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,7 +25998,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>107.1890716731873</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26044,7 +26044,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26071,13 +26071,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>184.188810568277</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>442078.4963071321</v>
+        <v>442078.4963071322</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>442078.4963071323</v>
+        <v>442078.4963071321</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>442078.4963071322</v>
+        <v>442078.4963071321</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465666.6977032337</v>
+        <v>465666.6977032339</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465666.6977032336</v>
+        <v>465666.6977032337</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465666.6977032336</v>
+        <v>465666.6977032337</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465666.6977032337</v>
+        <v>465666.6977032335</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465666.6977032337</v>
+        <v>465666.6977032336</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465666.6977032337</v>
+        <v>465666.6977032336</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465666.6977032335</v>
+        <v>465666.6977032337</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>442078.4963071321</v>
+        <v>442078.4963071322</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>442078.4963071321</v>
+        <v>442078.4963071322</v>
       </c>
     </row>
   </sheetData>
@@ -26335,16 +26335,16 @@
         <v>174468.7061578989</v>
       </c>
       <c r="J2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="K2" t="n">
         <v>174468.706157899</v>
       </c>
       <c r="L2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="M2" t="n">
         <v>174468.7061578989</v>
-      </c>
-      <c r="M2" t="n">
-        <v>174468.706157899</v>
       </c>
       <c r="N2" t="n">
         <v>174468.706157899</v>
@@ -26353,7 +26353,7 @@
         <v>165645.5239266781</v>
       </c>
       <c r="P2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.08537048259</v>
       </c>
       <c r="C4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.08537048261</v>
       </c>
       <c r="D4" t="n">
-        <v>55988.91876427</v>
+        <v>55726.08537048261</v>
       </c>
       <c r="E4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.08537048261</v>
       </c>
       <c r="F4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.08537048261</v>
       </c>
       <c r="G4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="H4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="I4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="J4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="L4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="M4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="N4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="O4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="P4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5340.236361129188</v>
+        <v>-5077.402967341739</v>
       </c>
       <c r="C6" t="n">
-        <v>63533.52022056068</v>
+        <v>63796.35361434809</v>
       </c>
       <c r="D6" t="n">
-        <v>63533.52022056067</v>
+        <v>63796.35361434806</v>
       </c>
       <c r="E6" t="n">
-        <v>97161.12022056065</v>
+        <v>97423.95361434805</v>
       </c>
       <c r="F6" t="n">
-        <v>97161.12022056065</v>
+        <v>97423.95361434805</v>
       </c>
       <c r="G6" t="n">
-        <v>91056.38612249044</v>
+        <v>91333.41192079721</v>
       </c>
       <c r="H6" t="n">
-        <v>100785.4290966575</v>
+        <v>101062.4548949643</v>
       </c>
       <c r="I6" t="n">
-        <v>100785.4290966575</v>
+        <v>101062.4548949642</v>
       </c>
       <c r="J6" t="n">
-        <v>47012.91820644807</v>
+        <v>47289.94400475486</v>
       </c>
       <c r="K6" t="n">
-        <v>100785.4290966576</v>
+        <v>101062.4548949643</v>
       </c>
       <c r="L6" t="n">
-        <v>100785.4290966575</v>
+        <v>101062.4548949643</v>
       </c>
       <c r="M6" t="n">
-        <v>100785.4290966575</v>
+        <v>101062.4548949642</v>
       </c>
       <c r="N6" t="n">
-        <v>100785.4290966575</v>
+        <v>101062.4548949643</v>
       </c>
       <c r="O6" t="n">
-        <v>97161.12022056065</v>
+        <v>97423.95361434804</v>
       </c>
       <c r="P6" t="n">
-        <v>97161.12022056074</v>
+        <v>97423.95361434807</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34702,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,10 +35179,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O12" t="n">
-        <v>0.494781459797586</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35653,13 +35653,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
@@ -35741,10 +35741,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,13 +35972,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,7 +37400,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,16 +37631,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>637053.8218356789</v>
+        <v>637837.9677737079</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5247562.307651304</v>
+        <v>5247562.307651303</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>205.5178444382804</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -738,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.57505181659868</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -789,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>114.2571612494427</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -899,58 +901,58 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>11.58966753026989</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>205.5178444382804</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1217,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>47.29627918133474</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>105.3690580549763</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,10 +1454,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>153.2418220378557</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1625,10 +1627,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>95.16904316421414</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.7625520093063</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1743,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>85.72024486005427</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1941,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1986,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>8.583694061602047</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,61 +2089,61 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>84.14750936819277</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>111.5956816229594</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,70 +2317,70 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>220.8837963815379</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>41.80378145191548</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>102.9664640366238</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2454,7 +2456,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="C27" t="n">
-        <v>90.16983368421225</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,13 +2693,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>83.03189205754168</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>114.6880488759458</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2962,55 +2964,55 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>36.89750082124304</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>118.3376725010039</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3202,58 +3204,58 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,25 +3350,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>94.44200087279981</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>83.3927757125424</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,46 +3435,46 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3594,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>68.790765900151</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>26.23921687579552</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>205.5178444382804</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3943,16 +3945,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>47.02492433367362</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>113.510569923185</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>90.01905571024375</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
         <v>639.2227743377304</v>
@@ -4313,16 +4315,16 @@
         <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F2" t="n">
         <v>224.0352098159517</v>
       </c>
-      <c r="F2" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4340,10 +4342,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>199.2900309704538</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4413,19 +4415,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>706.6601037637855</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>706.6601037637855</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>706.6601037637855</v>
       </c>
       <c r="W3" t="n">
-        <v>406.8838132313431</v>
+        <v>706.6601037637855</v>
       </c>
       <c r="X3" t="n">
-        <v>199.2900309704538</v>
+        <v>706.6601037637855</v>
       </c>
       <c r="Y3" t="n">
-        <v>199.2900309704538</v>
+        <v>499.0663215028962</v>
       </c>
     </row>
     <row r="4">
@@ -4480,7 +4482,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
         <v>16.44142755506243</v>
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4571,16 +4573,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4595,22 +4597,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>177.0825720953742</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D6" t="n">
         <v>16.44142755506243</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V6" t="n">
-        <v>807.4381113577983</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W6" t="n">
-        <v>599.8443290969091</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X6" t="n">
-        <v>392.2505468360198</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>345.2979091154422</v>
       </c>
     </row>
     <row r="7">
@@ -4747,7 +4749,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
         <v>16.44142755506243</v>
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
         <v>224.0352098159517</v>
@@ -4841,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.668476211275</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C9" t="n">
-        <v>64.21544693014803</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D9" t="n">
         <v>16.44142755506243</v>
@@ -4887,16 +4889,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M9" t="n">
         <v>345.2616536067974</v>
-      </c>
-      <c r="M9" t="n">
-        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
         <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4923,10 +4925,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>715.637985778398</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="10">
@@ -4954,13 +4956,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5048,10 +5050,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5060,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499.0663215028962</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C12" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5130,10 +5132,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5157,13 +5159,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y12" t="n">
-        <v>667.2816585229643</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="14">
@@ -5273,7 +5275,7 @@
         <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5282,7 +5284,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D15" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E15" t="n">
-        <v>455.2401404867769</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>308.7055825136619</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>169.9747570962774</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>56.60562150385668</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5358,19 +5360,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>142.2888212580996</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>345.7514872519972</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>549.2141532458947</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5391,13 +5393,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
         <v>614.4775954922324</v>
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>877.4710495913895</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C18" t="n">
-        <v>703.0180203102625</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D18" t="n">
-        <v>554.0836106490112</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E18" t="n">
-        <v>394.8461556435558</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F18" t="n">
-        <v>248.3115976704407</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5634,10 +5636,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>955.386757468614</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="19">
@@ -5695,22 +5697,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.2786273205085</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C21" t="n">
-        <v>104.2786273205085</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D21" t="n">
-        <v>104.2786273205085</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>104.2786273205085</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>104.2786273205085</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>104.2786273205085</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>104.2786273205085</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>750.1647153332599</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>521.941097069649</v>
       </c>
       <c r="V21" t="n">
-        <v>555.4877027295624</v>
+        <v>521.941097069649</v>
       </c>
       <c r="W21" t="n">
-        <v>312.0389260854624</v>
+        <v>521.941097069649</v>
       </c>
       <c r="X21" t="n">
-        <v>312.0389260854624</v>
+        <v>521.941097069649</v>
       </c>
       <c r="Y21" t="n">
-        <v>104.2786273205085</v>
+        <v>521.941097069649</v>
       </c>
     </row>
     <row r="22">
@@ -5947,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>360.2295980564601</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>200.9921430510046</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>200.9921430510046</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>62.26131763362014</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>62.26131763362014</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6072,13 +6074,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>860.0506261807132</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>657.8640315394791</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>429.6404132758682</v>
       </c>
       <c r="V24" t="n">
-        <v>360.2295980564601</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="W24" t="n">
-        <v>360.2295980564601</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X24" t="n">
-        <v>360.2295980564601</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y24" t="n">
-        <v>360.2295980564601</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.1159158480613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>562.4161926976942</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>318.9674160535941</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>111.1159158480613</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y27" t="n">
-        <v>111.1159158480613</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>880.1865574727153</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>880.1865574727153</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>645.0344492409727</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>401.5856725968725</v>
+        <v>573.6237674980839</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
         <v>829.5248650203655</v>
@@ -6658,13 +6660,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>366.1018663125844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>366.1018663125844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>366.1018663125844</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5698337361135</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C33" t="n">
-        <v>166.5698337361135</v>
+        <v>206.2398882739901</v>
       </c>
       <c r="D33" t="n">
-        <v>166.5698337361135</v>
+        <v>57.30547861273888</v>
       </c>
       <c r="E33" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
         <v>20.03527576299844</v>
@@ -6783,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>569.9372789879242</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>569.9372789879242</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>334.7851707561815</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>334.7851707561815</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>334.7851707561815</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>334.7851707561815</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6977,10 +6979,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>342.668582052591</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>352.2654233565326</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>352.2654233565326</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>352.2654233565326</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7308653834175</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7308653834175</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>778.6524990811558</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>778.6524990811558</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>550.428880817545</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>550.428880817545</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W36" t="n">
-        <v>550.428880817545</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X36" t="n">
-        <v>550.428880817545</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y36" t="n">
-        <v>342.668582052591</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
         <v>829.5248650203655</v>
@@ -7120,25 +7122,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>353.7257600495809</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C39" t="n">
-        <v>179.2727307684539</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="D39" t="n">
-        <v>179.2727307684539</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>179.0663943744209</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>179.0663943744209</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7259,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>937.5528960401357</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>937.5528960401357</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>937.5528960401357</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>937.5528960401357</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>729.7013958346029</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y39" t="n">
-        <v>521.941097069649</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="40">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>224.0352098159517</v>
@@ -7412,16 +7414,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7436,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U41" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="T41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="U41" t="n">
-        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7496,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7512,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>774.2973583780361</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>774.2973583780361</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>774.2973583780361</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>774.2973583780361</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>774.2973583780361</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>566.7035761171468</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>735.0390108322182</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>406.8838132313431</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
         <v>176.2910403306274</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>499.8204541556819</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="C45" t="n">
-        <v>325.3674248745549</v>
+        <v>266.6072216617742</v>
       </c>
       <c r="D45" t="n">
-        <v>176.4330152133036</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7733,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>401.0105146732905</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,19 +8221,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8535,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8696,13 +8698,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8778,13 +8780,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8930,10 +8932,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>139.0491612396719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,10 +9485,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,10 +9497,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,16 +9722,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10431,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10680,7 +10682,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10905,19 +10907,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,10 +11153,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11379,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -11391,10 +11393,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
-        <v>184.2527743897702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>201.358201303431</v>
@@ -22565,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22626,13 +22628,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1334471717171</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22677,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>85.90756744537886</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22720,10 +22722,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22787,7 +22789,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22835,10 +22837,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U5" t="n">
-        <v>70.32553552659914</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22863,10 +22865,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>161.1188314580459</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>218.3136534180552</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22987,10 +22989,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23021,7 +23023,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>149.1651971824026</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23103,7 +23105,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>100.148786383304</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23163,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>100.4039271485011</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>373.5228307925502</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23273,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,10 +23342,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>204.3987039795849</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>52.44087373944865</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23431,13 +23433,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>47.25443990287962</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23513,10 +23515,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>52.27602240042461</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.63408084210877</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23631,7 +23633,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23808,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.81293878981307</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23829,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23874,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>197.1892911418754</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23975,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24020,16 +24022,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24066,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>5.249123483222306</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>88.56904707186222</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,16 +24259,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>2.212053182593479</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>47.5928513994996</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>68.71670706721399</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>224.9573404408503</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>31.11902363415049</v>
       </c>
       <c r="C27" t="n">
-        <v>82.53866530410349</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,13 +24581,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24658,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>117.1328366372799</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>137.0069342849738</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>252.344814527994</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>120.7475796341579</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>81.82705619381767</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,25 +25238,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>17.79344336369665</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>88.29039539129542</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25394,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>245.0643151220611</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25436,10 +25438,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25482,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>68.55275126305963</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>173.9255118190261</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,13 +25532,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25640,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>133.9569576774867</v>
@@ -25676,19 +25678,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>158.2215652569456</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.86155497130842</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25770,7 +25772,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,10 +25867,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>180.394673303687</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>53.02261372668238</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>57.42600985439501</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>442078.4963071322</v>
+        <v>442078.4963071321</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>442078.4963071321</v>
+        <v>442078.4963071322</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465666.6977032339</v>
+        <v>465666.6977032337</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465666.6977032337</v>
+        <v>465666.6977032336</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465666.6977032337</v>
+        <v>465666.6977032336</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465666.6977032335</v>
+        <v>465666.6977032337</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465666.6977032336</v>
+        <v>465666.6977032337</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="C2" t="n">
         <v>165645.5239266781</v>
@@ -26326,7 +26328,7 @@
         <v>165645.5239266781</v>
       </c>
       <c r="G2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="H2" t="n">
         <v>174468.706157899</v>
@@ -26338,13 +26340,13 @@
         <v>174468.706157899</v>
       </c>
       <c r="K2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="L2" t="n">
         <v>174468.706157899</v>
       </c>
       <c r="M2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="N2" t="n">
         <v>174468.706157899</v>
@@ -26353,7 +26355,7 @@
         <v>165645.5239266781</v>
       </c>
       <c r="P2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
     </row>
     <row r="3">
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55726.08537048259</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="C4" t="n">
         <v>55726.08537048261</v>
       </c>
       <c r="D4" t="n">
-        <v>55726.08537048261</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="E4" t="n">
-        <v>55726.08537048261</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="F4" t="n">
-        <v>55726.08537048261</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="G4" t="n">
         <v>58752.58249917302</v>
       </c>
       <c r="H4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="I4" t="n">
         <v>58752.58249917302</v>
@@ -26448,7 +26450,7 @@
         <v>58752.58249917302</v>
       </c>
       <c r="M4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="N4" t="n">
         <v>58752.58249917302</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5077.402967341739</v>
+        <v>-5077.402967341717</v>
       </c>
       <c r="C6" t="n">
-        <v>63796.35361434809</v>
+        <v>63796.35361434805</v>
       </c>
       <c r="D6" t="n">
-        <v>63796.35361434806</v>
+        <v>63796.35361434807</v>
       </c>
       <c r="E6" t="n">
-        <v>97423.95361434805</v>
+        <v>97423.95361434807</v>
       </c>
       <c r="F6" t="n">
-        <v>97423.95361434805</v>
+        <v>97423.95361434809</v>
       </c>
       <c r="G6" t="n">
-        <v>91333.41192079721</v>
+        <v>91333.41192079715</v>
       </c>
       <c r="H6" t="n">
         <v>101062.4548949643</v>
@@ -26543,25 +26545,25 @@
         <v>101062.4548949642</v>
       </c>
       <c r="J6" t="n">
-        <v>47289.94400475486</v>
+        <v>47289.94400475484</v>
       </c>
       <c r="K6" t="n">
-        <v>101062.4548949643</v>
+        <v>101062.4548949642</v>
       </c>
       <c r="L6" t="n">
         <v>101062.4548949643</v>
       </c>
       <c r="M6" t="n">
-        <v>101062.4548949642</v>
+        <v>101062.4548949643</v>
       </c>
       <c r="N6" t="n">
         <v>101062.4548949643</v>
       </c>
       <c r="O6" t="n">
-        <v>97423.95361434804</v>
+        <v>97423.95361434809</v>
       </c>
       <c r="P6" t="n">
-        <v>97423.95361434807</v>
+        <v>97423.95361434815</v>
       </c>
     </row>
   </sheetData>
@@ -34708,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34941,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,13 +35418,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35498,13 +35500,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35650,10 +35652,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36217,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798016</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37400,7 +37402,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,19 +37627,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,7 +37864,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,10 +37873,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
@@ -38111,10 +38113,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>637837.9677737079</v>
+        <v>533605.4695102646</v>
       </c>
     </row>
     <row r="7">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>114.2571612494427</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,43 +837,43 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="C6" t="n">
-        <v>11.58966753026989</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,11 +1138,11 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>105.3690580549763</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1308,40 +1308,40 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.211010870930394</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>47.29627918133471</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1618,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>95.16904316421414</v>
+        <v>49.58768498316199</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1861,58 +1861,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>83.12218148371487</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>8.583694061602047</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>200.3360962888297</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>111.5956816229594</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,73 +2238,73 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>102.9664640366238</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2459,10 +2459,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
@@ -2572,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.13012673870388</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2800,64 +2800,64 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>70.34400780127524</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>204.2087196194545</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>114.6880488759458</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3113,10 +3113,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>36.89750082124304</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>3.55522121023865</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,73 +3265,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="X35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>94.44200087279981</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>131.8562746194806</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,67 +3505,67 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3590,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>68.790765900151</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>18.55597406227221</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3751,64 +3751,64 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>205.5178444382804</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>90.01905571024375</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>27.98156134303734</v>
       </c>
     </row>
     <row r="46">
@@ -4149,49 +4149,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F2" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4339,7 +4339,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4360,22 +4360,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>499.0663215028962</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4412,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>435.9652341458732</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>706.6601037637855</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>706.6601037637855</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V3" t="n">
-        <v>706.6601037637855</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="W3" t="n">
-        <v>706.6601037637855</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X3" t="n">
-        <v>706.6601037637855</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>499.0663215028962</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
         <v>16.44142755506243</v>
@@ -4521,19 +4521,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4573,7 +4573,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177.0825720953742</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="C6" t="n">
-        <v>165.3758372163137</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="7">
@@ -4752,10 +4752,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
         <v>16.44142755506243</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4813,10 +4813,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>822.0713777531216</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339.8288664974407</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
         <v>16.44142755506243</v>
@@ -4886,19 +4886,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4916,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X9" t="n">
-        <v>715.637985778398</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>508.0442035175087</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
         <v>16.44142755506243</v>
@@ -4989,25 +4989,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>651.2927635848137</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5050,13 +5050,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5065,28 +5065,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>660.5968149695918</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5135,10 +5135,10 @@
         <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5153,19 +5153,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>774.2973583780361</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X12" t="n">
-        <v>566.7035761171468</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.1097938562575</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>446.2622584721643</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="C15" t="n">
-        <v>271.8092291910373</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="D15" t="n">
-        <v>175.6788825605179</v>
+        <v>289.8021508057243</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>339.8907214957869</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5472,16 +5472,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5560,7 +5560,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>787.171420448546</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5600,13 +5600,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>880.0953560321364</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>880.0953560321364</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X18" t="n">
-        <v>955.386757468614</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y18" t="n">
-        <v>955.386757468614</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="19">
@@ -5706,13 +5706,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W20" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X20" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>353.7257600495809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>750.1647153332599</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U21" t="n">
-        <v>521.941097069649</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>521.941097069649</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>521.941097069649</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>521.941097069649</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>521.941097069649</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5952,10 +5952,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6022,19 +6022,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V23" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="W23" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,10 +6074,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>860.0506261807132</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>657.8640315394791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>429.6404132758682</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>194.4883050441255</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>194.4883050441255</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>194.4883050441255</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6186,7 +6186,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6317,40 +6317,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
+        <v>487.8483949674443</v>
+      </c>
+      <c r="O27" t="n">
         <v>726.4525409563269</v>
       </c>
-      <c r="O27" t="n">
-        <v>964.0571555106362</v>
-      </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.0119685275972</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6545,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>757.7857215515912</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>522.6336133198486</v>
       </c>
       <c r="W30" t="n">
-        <v>573.6237674980839</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="X30" t="n">
-        <v>365.7722672925511</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="Y30" t="n">
-        <v>158.0119685275972</v>
+        <v>279.1848366757484</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>380.6929175551172</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>206.2398882739901</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>57.30547861273888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y33" t="n">
-        <v>380.6929175551172</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
         <v>19.28114311021272</v>
@@ -6903,7 +6903,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>352.2654233565326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>352.2654233565326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>352.2654233565326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>205.7308653834175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>205.7308653834175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>526.7184526376595</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W36" t="n">
-        <v>526.7184526376595</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X36" t="n">
-        <v>526.7184526376595</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.7568786610034</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>179.0663943744209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>179.0663943744209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7259,46 +7259,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>945.3137473669269</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>771.8964028175958</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.7568786610034</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="40">
@@ -7359,16 +7359,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7414,16 +7414,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7441,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="W41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="X41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="Y41" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="W41" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="X41" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
         <v>16.44142755506243</v>
@@ -7499,16 +7499,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7520,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7590,16 +7590,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C44" t="n">
-        <v>189.1984156022267</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D44" t="n">
-        <v>189.1984156022267</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1984156022267</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F44" t="n">
-        <v>189.1984156022267</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1984156022267</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
         <v>28.51141680214578</v>
@@ -7654,7 +7654,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7687,13 +7687,13 @@
         <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y44" t="n">
-        <v>604.3859801240053</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>441.0602509429012</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="C45" t="n">
-        <v>266.6072216617742</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="D45" t="n">
-        <v>175.6788825605179</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7733,19 +7733,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.0602509429012</v>
+        <v>176.4330152133036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7987,10 +7987,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,10 +8221,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
@@ -8306,16 +8306,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,13 +8461,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8546,10 +8546,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8698,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8783,13 +8783,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>143.091025904242</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,16 +9248,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>292.5201795090609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9965,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11147,19 +11147,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,10 +11302,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822432</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22600,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="3">
@@ -22628,13 +22628,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>85.90756744537886</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>191.0829231826191</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7700698467189</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>158.8410769445925</v>
       </c>
       <c r="C6" t="n">
-        <v>161.1188314580459</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22992,13 +22992,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,10 +23026,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23038,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>318.3145018902242</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>51.78046976818786</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>100.4039271485011</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23196,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>373.5228307925502</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,10 +23314,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>80.31623474114394</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>204.3987039795849</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>25.49945914849792</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>47.25443990287962</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>52.27602240042461</v>
+        <v>97.85738058147676</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,13 +23591,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23749,10 +23749,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23864,22 +23864,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>117.0425472111067</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>197.1892911418754</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>344.9587297138598</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>22.7597532753017</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>88.56904707186222</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24262,10 +24262,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>68.71670706721399</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
@@ -24460,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31.11902363415049</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>152.5648564222157</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24770,13 +24770,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>21.73266246152028</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>137.0069342849738</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -25001,10 +25001,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>120.7475796341579</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>248.139761950681</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>258.8520309793366</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25244,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>17.79344336369665</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>100.9443125299447</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25362,10 +25362,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,16 +25444,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>140.9771323296006</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25478,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>68.55275126305963</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>81.60186009037092</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25532,13 +25532,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25681,22 +25681,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>158.2215652569456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25772,7 +25772,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>19.39975207878135</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25830,19 +25830,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>159.7550473327271</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>180.394673303687</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>210.6509718663889</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,10 +25946,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>57.42600985439501</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>177.701134434267</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>442078.4963071321</v>
+        <v>442078.4963071322</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>442078.4963071322</v>
+        <v>442078.4963071321</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>442078.4963071321</v>
+        <v>442078.4963071322</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465666.6977032337</v>
+        <v>465666.6977032336</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465666.6977032336</v>
+        <v>465666.6977032335</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465666.6977032336</v>
+        <v>465666.6977032337</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465666.6977032337</v>
+        <v>465666.6977032335</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465666.6977032337</v>
+        <v>465666.6977032336</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>442078.4963071322</v>
+        <v>442078.4963071323</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>165645.5239266782</v>
       </c>
       <c r="C2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="D2" t="n">
         <v>165645.5239266781</v>
@@ -26328,25 +26328,25 @@
         <v>165645.5239266781</v>
       </c>
       <c r="G2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="H2" t="n">
         <v>174468.7061578989</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>174468.706157899</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>174468.7061578989</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>174468.706157899</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>174468.7061578989</v>
       </c>
-      <c r="L2" t="n">
-        <v>174468.706157899</v>
-      </c>
       <c r="M2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="N2" t="n">
         <v>174468.706157899</v>
@@ -26355,7 +26355,7 @@
         <v>165645.5239266781</v>
       </c>
       <c r="P2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5077.402967341717</v>
+        <v>-17715.56512220222</v>
       </c>
       <c r="C6" t="n">
-        <v>63796.35361434805</v>
+        <v>51158.19145948761</v>
       </c>
       <c r="D6" t="n">
-        <v>63796.35361434807</v>
+        <v>51158.19145948753</v>
       </c>
       <c r="E6" t="n">
-        <v>97423.95361434807</v>
+        <v>84785.79145948756</v>
       </c>
       <c r="F6" t="n">
-        <v>97423.95361434809</v>
+        <v>84785.7914594875</v>
       </c>
       <c r="G6" t="n">
-        <v>91333.41192079715</v>
+        <v>79115.40130075677</v>
       </c>
       <c r="H6" t="n">
-        <v>101062.4548949643</v>
+        <v>88844.44427492378</v>
       </c>
       <c r="I6" t="n">
-        <v>101062.4548949642</v>
+        <v>88844.44427492381</v>
       </c>
       <c r="J6" t="n">
-        <v>47289.94400475484</v>
+        <v>35071.93338471432</v>
       </c>
       <c r="K6" t="n">
-        <v>101062.4548949642</v>
+        <v>88844.44427492384</v>
       </c>
       <c r="L6" t="n">
-        <v>101062.4548949643</v>
+        <v>88844.44427492378</v>
       </c>
       <c r="M6" t="n">
-        <v>101062.4548949643</v>
+        <v>88844.44427492375</v>
       </c>
       <c r="N6" t="n">
-        <v>101062.4548949643</v>
+        <v>88844.44427492384</v>
       </c>
       <c r="O6" t="n">
-        <v>97423.95361434809</v>
+        <v>84785.79145948759</v>
       </c>
       <c r="P6" t="n">
-        <v>97423.95361434815</v>
+        <v>84785.79145948759</v>
       </c>
     </row>
   </sheetData>
@@ -34707,10 +34707,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
@@ -35026,16 +35026,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35266,10 +35266,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>91.61977832229879</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35418,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0.494781459797586</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36685,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37627,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37867,19 +37867,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
